--- a/billcopy.xlsx
+++ b/billcopy.xlsx
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>SENTHIL_INDUSTRIES</t>
+    <t>SRI_KRISHNA_ENTERPRISES</t>
   </si>
   <si>
     <t>TN-30-L-4466</t>
   </si>
   <si>
-    <t>2020-02-07</t>
+    <t>2020-04-29</t>
   </si>
 </sst>
 </file>
@@ -372,11 +372,13 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>2109</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2"/>
+      <c r="A2">
+        <v>1234</v>
+      </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">

--- a/billcopy.xlsx
+++ b/billcopy.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>SRI_KRISHNA_ENTERPRISES</t>
+    <t>SENTHIL_INDUSTRIES</t>
   </si>
   <si>
-    <t>TN-30-L-4466</t>
+    <t>Chennai</t>
   </si>
   <si>
-    <t>2020-04-29</t>
+    <t>TN-38-AF-3129</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>2115</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -386,41 +389,43 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -430,7 +435,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0</v>
+        <v>17420</v>
       </c>
     </row>
   </sheetData>
